--- a/docs/ST1/ST1_01.08.24_output.xlsx
+++ b/docs/ST1/ST1_01.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>quity</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -528,6 +533,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -540,22 +546,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1730729686.9349267</t>
+          <t>1731619778.161965</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1730729689.958007</t>
+          <t>1731619781.1624646</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730729686.9349267.png</t>
+          <t>./test_images/SBER1731619778.161965.png</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730729689.958007.png</t>
+          <t>./test_images/SBER1731619781.1624646.png</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -576,6 +582,9 @@
       </c>
       <c r="K3" t="n">
         <v>0.1499999999999773</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -589,22 +598,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1730729689.9739637</t>
+          <t>1731619781.178421</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1730729694.0466623</t>
+          <t>1731619785.679498</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730729689.9739637.png</t>
+          <t>./test_images/SBER1731619781.178421.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730729694.0466623.png</t>
+          <t>./test_images/SBER1731619785.679498.png</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -625,6 +634,9 @@
       </c>
       <c r="K4" t="n">
         <v>0.3299999999999841</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +650,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1730729699.0003881</t>
+          <t>1731619790.976935</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1730729702.4815512</t>
+          <t>1731619794.8764946</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730729699.0003881.png</t>
+          <t>./test_images/SBER1731619790.976935.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730729702.4815512.png</t>
+          <t>./test_images/SBER1731619794.8764946.png</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -674,6 +686,9 @@
       </c>
       <c r="K5" t="n">
         <v>0.7199999999999704</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
@@ -687,22 +702,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1730729714.7649388</t>
+          <t>1731619809.2437863</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1730729720.2493224</t>
+          <t>1731619815.550319</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730729714.7649388.png</t>
+          <t>./test_images/GAZP1731619809.2437863.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730729720.2493224.png</t>
+          <t>./test_images/GAZP1731619815.550319.png</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -723,6 +738,9 @@
       </c>
       <c r="K6" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="7">
@@ -736,22 +754,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1730729720.2654042</t>
+          <t>1731619815.5672734</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1730729721.8409</t>
+          <t>1731619817.25606</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730729720.2654042.png</t>
+          <t>./test_images/GAZP1731619815.5672734.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730729721.8409.png</t>
+          <t>./test_images/GAZP1731619817.25606.png</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -772,6 +790,9 @@
       </c>
       <c r="K7" t="n">
         <v>0.460000000000008</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="8">
@@ -785,22 +806,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1730729726.1548626</t>
+          <t>1731619821.8603718</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1730729730.0640428</t>
+          <t>1731619825.949498</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730729726.1548626.png</t>
+          <t>./test_images/GAZP1731619821.8603718.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730729730.0640428.png</t>
+          <t>./test_images/GAZP1731619825.949498.png</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -821,6 +842,9 @@
       </c>
       <c r="K8" t="n">
         <v>0.1500000000000057</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="9">
@@ -834,22 +858,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1730729730.0889778</t>
+          <t>1731619825.965454</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1730729735.4956834</t>
+          <t>1731619831.5582387</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730729730.0889778.png</t>
+          <t>./test_images/GAZP1731619825.965454.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730729735.4956834.png</t>
+          <t>./test_images/GAZP1731619831.5582387.png</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -870,6 +894,9 @@
       </c>
       <c r="K9" t="n">
         <v>-0.4799999999999898</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="10">
@@ -883,22 +910,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1730729735.512638</t>
+          <t>1731619831.5751936</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1730729737.037138</t>
+          <t>1731619833.1745157</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730729735.512638.png</t>
+          <t>./test_images/GAZP1731619831.5751936.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730729737.037138.png</t>
+          <t>./test_images/GAZP1731619833.1745157.png</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -919,6 +946,9 @@
       </c>
       <c r="K10" t="n">
         <v>0.5100000000000193</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="11">
@@ -932,22 +962,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1730729756.257487</t>
+          <t>1731619854.5976403</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1730729762.5858927</t>
+          <t>1731619861.8077726</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730729756.257487.png</t>
+          <t>./test_images/LKOH1731619854.5976403.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730729762.5858927.png</t>
+          <t>./test_images/LKOH1731619861.8077726.png</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -968,6 +998,9 @@
       </c>
       <c r="K11" t="n">
         <v>20.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="12">
@@ -981,22 +1014,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1730729772.6612911</t>
+          <t>1731619873.1430666</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1730729773.0219407</t>
+          <t>1731619873.5553052</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730729772.6612911.png</t>
+          <t>./test_images/ROSN1731619873.1430666.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730729773.0219407.png</t>
+          <t>./test_images/ROSN1731619873.5553052.png</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1017,6 +1050,9 @@
       </c>
       <c r="K12" t="n">
         <v>2.850000000000023</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -1030,22 +1066,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1730729774.7849183</t>
+          <t>1731619875.7058332</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1730729787.8338604</t>
+          <t>1731619890.6757002</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730729774.7849183.png</t>
+          <t>./test_images/ROSN1731619875.7058332.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730729787.8338604.png</t>
+          <t>./test_images/ROSN1731619890.6757002.png</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1066,6 +1102,9 @@
       </c>
       <c r="K13" t="n">
         <v>-3.049999999999955</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.59</v>
       </c>
     </row>
     <row r="14">
@@ -1079,22 +1118,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1730729787.8498328</t>
+          <t>1731619890.6916935</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1730729789.701351</t>
+          <t>1731619892.8716667</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730729787.8498328.png</t>
+          <t>./test_images/ROSN1731619890.6916935.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730729789.701351.png</t>
+          <t>./test_images/ROSN1731619892.8716667.png</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1115,6 +1154,9 @@
       </c>
       <c r="K14" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="15">
@@ -1128,13 +1170,13 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1730729789.717312</t>
+          <t>1731619892.8876429</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730729789.717312.png</t>
+          <t>./test_images/ROSN1731619892.8876429.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1151,8 +1193,15 @@
       <c r="I15" t="n">
         <v>512.2</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>512.2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1165,22 +1214,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1730729801.6756017</t>
+          <t>1731619906.9675295</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1730729804.0359406</t>
+          <t>1731619909.783804</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730729801.6756017.png</t>
+          <t>./test_images/MOEX1731619906.9675295.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730729804.0359406.png</t>
+          <t>./test_images/MOEX1731619909.783804.png</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1201,6 +1250,9 @@
       </c>
       <c r="K16" t="n">
         <v>0.4099999999999966</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="17">
@@ -1214,22 +1266,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1730729804.051871</t>
+          <t>1731619909.799734</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1730729818.5043285</t>
+          <t>1731619925.4956605</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730729804.051871.png</t>
+          <t>./test_images/MOEX1731619909.799734.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730729818.5043285.png</t>
+          <t>./test_images/MOEX1731619925.4956605.png</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1250,6 +1302,9 @@
       </c>
       <c r="K17" t="n">
         <v>0.7199999999999989</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="18">
@@ -1263,22 +1318,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1730729822.913949</t>
+          <t>1731619930.2859602</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1730729826.6749434</t>
+          <t>1731619934.6700692</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730729822.913949.png</t>
+          <t>./test_images/MOEX1731619930.2859602.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730729826.6749434.png</t>
+          <t>./test_images/MOEX1731619934.6700692.png</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1299,6 +1354,9 @@
       </c>
       <c r="K18" t="n">
         <v>1.939999999999998</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="19">
@@ -1312,13 +1370,13 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1730729829.0715666</t>
+          <t>1731619937.6959903</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>./test_images/MOEX1730729829.0715666.png</t>
+          <t>./test_images/MOEX1731619937.6959903.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1335,8 +1393,15 @@
       <c r="I19" t="n">
         <v>229.95</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>229.95</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1349,22 +1414,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1730729829.5972672</t>
+          <t>1731619938.282637</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1730729829.9214005</t>
+          <t>1731619938.6154737</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730729829.5972672.png</t>
+          <t>./test_images/NVTK1731619938.282637.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730729829.9214005.png</t>
+          <t>./test_images/NVTK1731619938.6154737.png</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1385,6 +1450,9 @@
       </c>
       <c r="K20" t="n">
         <v>7.599999999999909</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row r="21">
@@ -1398,22 +1466,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1730729832.210308</t>
+          <t>1731619941.0698204</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1730729836.6430123</t>
+          <t>1731619945.8015616</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730729832.210308.png</t>
+          <t>./test_images/NVTK1731619941.0698204.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730729836.6430123.png</t>
+          <t>./test_images/NVTK1731619945.8015616.png</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1434,6 +1502,9 @@
       </c>
       <c r="K21" t="n">
         <v>-0.2000000000000455</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="22">
@@ -1447,22 +1518,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1730729836.658973</t>
+          <t>1731619945.818543</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1730729839.191047</t>
+          <t>1731619948.6547422</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730729836.658973.png</t>
+          <t>./test_images/NVTK1731619945.818543.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730729839.191047.png</t>
+          <t>./test_images/NVTK1731619948.6547422.png</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1483,6 +1554,9 @@
       </c>
       <c r="K22" t="n">
         <v>4.200000000000045</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="23">
@@ -1496,22 +1570,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1730729844.318437</t>
+          <t>1731619954.596722</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1730729848.054295</t>
+          <t>1731619958.9155395</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730729844.318437.png</t>
+          <t>./test_images/NVTK1731619954.596722.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730729848.054295.png</t>
+          <t>./test_images/NVTK1731619958.9155395.png</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1532,6 +1606,9 @@
       </c>
       <c r="K23" t="n">
         <v>4.600000000000136</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="24">
@@ -1545,22 +1622,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1730729849.6659675</t>
+          <t>1731619960.7682385</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1730729853.031147</t>
+          <t>1731619964.6383116</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730729849.6659675.png</t>
+          <t>./test_images/NVTK1731619960.7682385.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730729853.031147.png</t>
+          <t>./test_images/NVTK1731619964.6383116.png</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1581,6 +1658,9 @@
       </c>
       <c r="K24" t="n">
         <v>5.399999999999864</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="25">
@@ -1594,13 +1674,13 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1730729858.5119936</t>
+          <t>1731619970.9575381</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730729858.5119936.png</t>
+          <t>./test_images/NVTK1731619970.9575381.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1617,8 +1697,15 @@
       <c r="I25" t="n">
         <v>1030.6</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1030.6</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1631,13 +1718,13 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1730729858.988191</t>
+          <t>1731619971.491875</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>./test_images/CNY1730729858.988191.png</t>
+          <t>./test_images/CNY1731619971.491875.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1654,8 +1741,15 @@
       <c r="I26" t="n">
         <v>11.869</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>11.869</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1668,22 +1762,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1730729860.7794337</t>
+          <t>1731619973.4607131</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1730729866.4182448</t>
+          <t>1731619979.6609933</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730729860.7794337.png</t>
+          <t>./test_images/GMKN1731619973.4607131.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730729866.4182448.png</t>
+          <t>./test_images/GMKN1731619979.6609933.png</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1704,6 +1798,9 @@
       </c>
       <c r="K27" t="n">
         <v>-0.4799999999999898</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="28">
@@ -1717,13 +1814,13 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1730729875.9226487</t>
+          <t>1731619990.6177087</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730729875.9226487.png</t>
+          <t>./test_images/GMKN1731619990.6177087.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1740,8 +1837,15 @@
       <c r="I28" t="n">
         <v>129.66</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>129.66</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1754,22 +1858,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1730729888.1710644</t>
+          <t>1731620005.2349756</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1730729888.3461003</t>
+          <t>1731620005.4527023</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730729888.1710644.png</t>
+          <t>./test_images/NLMK1731620005.2349756.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730729888.3461003.png</t>
+          <t>./test_images/NLMK1731620005.4527023.png</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1790,6 +1894,9 @@
       </c>
       <c r="K29" t="n">
         <v>0.7400000000000091</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="30">
@@ -1803,22 +1910,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1730729890.330517</t>
+          <t>1731620007.7643461</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1730729895.1691232</t>
+          <t>1731620013.516007</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730729890.330517.png</t>
+          <t>./test_images/NLMK1731620007.7643461.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730729895.1691232.png</t>
+          <t>./test_images/NLMK1731620013.516007.png</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1839,6 +1946,9 @@
       </c>
       <c r="K30" t="n">
         <v>0.9200000000000159</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -1852,22 +1962,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1730729897.5923324</t>
+          <t>1731620016.4767761</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1730729903.863493</t>
+          <t>1731620023.8318648</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730729897.5923324.png</t>
+          <t>./test_images/NLMK1731620016.4767761.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730729903.863493.png</t>
+          <t>./test_images/NLMK1731620023.8318648.png</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1888,6 +1998,9 @@
       </c>
       <c r="K31" t="n">
         <v>0.01999999999998181</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="32">
@@ -1901,22 +2014,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1730729905.3590093</t>
+          <t>1731620025.5703313</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1730729915.1888163</t>
+          <t>1731620036.4699242</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730729905.3590093.png</t>
+          <t>./test_images/NLMK1731620025.5703313.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730729915.1888163.png</t>
+          <t>./test_images/NLMK1731620036.4699242.png</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1937,6 +2050,9 @@
       </c>
       <c r="K32" t="n">
         <v>-1.560000000000002</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.9400000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -1950,13 +2066,13 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1730729915.2048059</t>
+          <t>1731620036.4858837</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730729915.2048059.png</t>
+          <t>./test_images/NLMK1731620036.4858837.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -1973,8 +2089,15 @@
       <c r="I33" t="n">
         <v>164.74</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>164.74</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1987,22 +2110,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1730729919.2040133</t>
+          <t>1731620040.952395</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1730729922.56053</t>
+          <t>1731620044.77679</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730729919.2040133.png</t>
+          <t>./test_images/MAGN1731620040.952395.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730729922.56053.png</t>
+          <t>./test_images/MAGN1731620044.77679.png</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2023,6 +2146,9 @@
       </c>
       <c r="K34" t="n">
         <v>0.07499999999999574</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="35">
@@ -2036,22 +2162,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1730729926.2241688</t>
+          <t>1731620048.9575603</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1730729933.2433019</t>
+          <t>1731620056.8406103</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730729926.2241688.png</t>
+          <t>./test_images/MAGN1731620048.9575603.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730729933.2433019.png</t>
+          <t>./test_images/MAGN1731620056.8406103.png</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2072,6 +2198,9 @@
       </c>
       <c r="K35" t="n">
         <v>0.01500000000000057</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="36">
@@ -2085,22 +2214,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1730729933.2602286</t>
+          <t>1731620056.857565</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1730729936.0145793</t>
+          <t>1731620059.8683348</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730729933.2602286.png</t>
+          <t>./test_images/MAGN1731620056.857565.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730729936.0145793.png</t>
+          <t>./test_images/MAGN1731620059.8683348.png</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2121,6 +2250,9 @@
       </c>
       <c r="K36" t="n">
         <v>0.02000000000000313</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="37">
@@ -2134,22 +2266,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1730729936.0315428</t>
+          <t>1731620059.885262</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1730729939.630031</t>
+          <t>1731620063.7366774</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730729936.0315428.png</t>
+          <t>./test_images/MAGN1731620059.885262.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730729939.630031.png</t>
+          <t>./test_images/MAGN1731620063.7366774.png</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2170,6 +2302,9 @@
       </c>
       <c r="K37" t="n">
         <v>-0.05499999999999972</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="38">
@@ -2183,22 +2318,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1730729939.6469858</t>
+          <t>1731620063.7536373</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1730729943.684163</t>
+          <t>1731620068.1728206</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730729939.6469858.png</t>
+          <t>./test_images/MAGN1731620063.7536373.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730729943.684163.png</t>
+          <t>./test_images/MAGN1731620068.1728206.png</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2219,6 +2354,9 @@
       </c>
       <c r="K38" t="n">
         <v>0.144999999999996</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="39">
@@ -2232,22 +2370,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1730729946.9672117</t>
+          <t>1731620071.9646358</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1730729950.0020435</t>
+          <t>1731620075.660049</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730729946.9672117.png</t>
+          <t>./test_images/CHMF1731620071.9646358.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730729950.0020435.png</t>
+          <t>./test_images/CHMF1731620075.660049.png</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2268,6 +2406,9 @@
       </c>
       <c r="K39" t="n">
         <v>4.399999999999864</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="40">
@@ -2281,22 +2422,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1730729950.0190265</t>
+          <t>1731620075.6770113</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1730729957.328502</t>
+          <t>1731620084.2103639</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730729950.0190265.png</t>
+          <t>./test_images/CHMF1731620075.6770113.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730729957.328502.png</t>
+          <t>./test_images/CHMF1731620084.2103639.png</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2317,6 +2458,9 @@
       </c>
       <c r="K40" t="n">
         <v>-1.400000000000091</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="41">
@@ -2330,22 +2474,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1730729957.3454897</t>
+          <t>1731620084.2272904</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1730729960.0722523</t>
+          <t>1731620087.3745942</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730729957.3454897.png</t>
+          <t>./test_images/CHMF1731620084.2272904.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730729960.0722523.png</t>
+          <t>./test_images/CHMF1731620087.3745942.png</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2366,6 +2510,9 @@
       </c>
       <c r="K41" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="42">
@@ -2379,22 +2526,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1730729960.0892098</t>
+          <t>1731620087.3915489</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1730729963.2335808</t>
+          <t>1731620090.9390194</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730729960.0892098.png</t>
+          <t>./test_images/CHMF1731620087.3915489.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730729963.2335808.png</t>
+          <t>./test_images/CHMF1731620090.9390194.png</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2415,6 +2562,9 @@
       </c>
       <c r="K42" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="43">
@@ -2428,22 +2578,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1730729963.2505739</t>
+          <t>1731620090.9559479</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1730729973.3483307</t>
+          <t>1731620102.680594</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730729963.2505739.png</t>
+          <t>./test_images/CHMF1731620090.9559479.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730729973.3483307.png</t>
+          <t>./test_images/CHMF1731620102.680594.png</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2464,6 +2614,9 @@
       </c>
       <c r="K43" t="n">
         <v>-6.200000000000045</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="44">
@@ -2477,13 +2630,13 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1730729973.3653486</t>
+          <t>1731620102.6975465</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730729973.3653486.png</t>
+          <t>./test_images/CHMF1731620102.6975465.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2500,8 +2653,15 @@
       <c r="I44" t="n">
         <v>1412</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1412</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2514,22 +2674,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1730729976.5017524</t>
+          <t>1731620106.1251347</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1730729976.602069</t>
+          <t>1731620106.2251673</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730729976.5017524.png</t>
+          <t>./test_images/ALRS1731620106.1251347.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730729976.602069.png</t>
+          <t>./test_images/ALRS1731620106.2251673.png</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2550,6 +2710,9 @@
       </c>
       <c r="K45" t="n">
         <v>0.1499999999999986</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="46">
@@ -2563,22 +2726,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1730729987.070835</t>
+          <t>1731620118.2979095</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1730729989.612141</t>
+          <t>1731620121.2762704</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730729987.070835.png</t>
+          <t>./test_images/ALRS1731620118.2979095.png</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730729989.612141.png</t>
+          <t>./test_images/ALRS1731620121.2762704.png</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2599,6 +2762,9 @@
       </c>
       <c r="K46" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="47">
@@ -2612,22 +2778,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1730729989.629083</t>
+          <t>1731620121.2932248</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1730729994.3290806</t>
+          <t>1731620126.8643978</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730729989.629083.png</t>
+          <t>./test_images/ALRS1731620121.2932248.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730729994.3290806.png</t>
+          <t>./test_images/ALRS1731620126.8643978.png</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2648,6 +2814,9 @@
       </c>
       <c r="K47" t="n">
         <v>0.1700000000000017</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="48">
@@ -2661,22 +2830,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1730730007.761714</t>
+          <t>1731620142.40664</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1730730013.541123</t>
+          <t>1731620149.2427666</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730730007.761714.png</t>
+          <t>./test_images/SELG1731620142.40664.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730730013.541123.png</t>
+          <t>./test_images/SELG1731620149.2427666.png</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2697,6 +2866,9 @@
       </c>
       <c r="K48" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="49">
@@ -2710,22 +2882,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1730730013.5581236</t>
+          <t>1731620149.2587233</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1730730015.233355</t>
+          <t>1731620151.1915946</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730730013.5581236.png</t>
+          <t>./test_images/SELG1731620149.2587233.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730730015.233355.png</t>
+          <t>./test_images/SELG1731620151.1915946.png</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2746,6 +2918,9 @@
       </c>
       <c r="K49" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="50">
@@ -2759,22 +2934,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1730730018.46069</t>
+          <t>1731620155.1097095</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1730730023.232106</t>
+          <t>1731620160.7578878</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730730018.46069.png</t>
+          <t>./test_images/SELG1731620155.1097095.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730730023.232106.png</t>
+          <t>./test_images/SELG1731620160.7578878.png</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2795,6 +2970,9 @@
       </c>
       <c r="K50" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="51">
@@ -2808,13 +2986,13 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1730730032.7251642</t>
+          <t>1731620171.684898</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730730032.7251642.png</t>
+          <t>./test_images/SELG1731620171.684898.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -2831,8 +3009,15 @@
       <c r="I51" t="n">
         <v>57.18</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>57.18</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2845,22 +3030,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1730730036.72213</t>
+          <t>1731620176.3715062</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1730730042.4543846</t>
+          <t>1731620183.100369</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730730036.72213.png</t>
+          <t>./test_images/SOFL1731620176.3715062.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730730042.4543846.png</t>
+          <t>./test_images/SOFL1731620183.100369.png</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2881,6 +3066,9 @@
       </c>
       <c r="K52" t="n">
         <v>1.060000000000002</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row r="53">
@@ -2894,22 +3082,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1730730065.5574133</t>
+          <t>1731620210.1297977</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1730730090.8556776</t>
+          <t>1731620238.5512795</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730730065.5574133.png</t>
+          <t>./test_images/AFKS1731620210.1297977.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730730090.8556776.png</t>
+          <t>./test_images/AFKS1731620238.5512795.png</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2930,6 +3118,9 @@
       </c>
       <c r="K53" t="n">
         <v>-0.4909999999999997</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-2.3</v>
       </c>
     </row>
     <row r="54">
@@ -2943,13 +3134,13 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1730730090.8726027</t>
+          <t>1731620238.5682342</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>./test_images/AFKS1730730090.8726027.png</t>
+          <t>./test_images/AFKS1731620238.5682342.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -2966,8 +3157,15 @@
       <c r="I54" t="n">
         <v>20.848</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>20.848</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2980,22 +3178,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1730730100.7030656</t>
+          <t>1731620249.8527565</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1730730106.5398977</t>
+          <t>1731620256.3800008</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730730100.7030656.png</t>
+          <t>./test_images/SIBN1731620249.8527565.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730730106.5398977.png</t>
+          <t>./test_images/SIBN1731620256.3800008.png</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3016,6 +3214,9 @@
       </c>
       <c r="K55" t="n">
         <v>-1.399999999999977</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="56">
@@ -3029,22 +3230,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1730730106.5578783</t>
+          <t>1731620256.3979523</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1730730109.7083383</t>
+          <t>1731620259.8499439</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730730106.5578783.png</t>
+          <t>./test_images/SIBN1731620256.3979523.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730730109.7083383.png</t>
+          <t>./test_images/SIBN1731620259.8499439.png</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3065,6 +3266,9 @@
       </c>
       <c r="K56" t="n">
         <v>0.9500000000000455</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="57">
@@ -3078,22 +3282,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1730730116.3764334</t>
+          <t>1731620267.3220463</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1730730118.5389035</t>
+          <t>1731620269.8306775</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730730116.3764334.png</t>
+          <t>./test_images/SIBN1731620267.3220463.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>./test_images/SIBN1730730118.5389035.png</t>
+          <t>./test_images/SIBN1731620269.8306775.png</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3114,6 +3318,9 @@
       </c>
       <c r="K57" t="n">
         <v>0.75</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="58">
@@ -3127,22 +3334,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1730730130.4339337</t>
+          <t>1731620283.1114783</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1730730133.028404</t>
+          <t>1731620286.038318</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730730130.4339337.png</t>
+          <t>./test_images/FEES1731620283.1114783.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730730133.028404.png</t>
+          <t>./test_images/FEES1731620286.038318.png</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3163,6 +3370,9 @@
       </c>
       <c r="K58" t="n">
         <v>0.0003000000000000086</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="59">
@@ -3176,22 +3386,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1730730140.279982</t>
+          <t>1731620294.4061742</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1730730147.6371217</t>
+          <t>1731620302.9434075</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730730140.279982.png</t>
+          <t>./test_images/FEES1731620294.4061742.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730730147.6371217.png</t>
+          <t>./test_images/FEES1731620302.9434075.png</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3212,6 +3422,9 @@
       </c>
       <c r="K59" t="n">
         <v>-0.0008399999999999935</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.83</v>
       </c>
     </row>
     <row r="60">
@@ -3225,22 +3438,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1730730147.6908648</t>
+          <t>1731620302.961352</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1730730149.0873203</t>
+          <t>1731620304.5395799</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730730147.6908648.png</t>
+          <t>./test_images/FEES1731620302.961352.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730730149.0873203.png</t>
+          <t>./test_images/FEES1731620304.5395799.png</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3261,6 +3474,9 @@
       </c>
       <c r="K60" t="n">
         <v>0.0006199999999999956</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="61">
@@ -3274,22 +3490,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1730730154.8571467</t>
+          <t>1731620311.2808855</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1730730156.756312</t>
+          <t>1731620313.514709</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>./test_images/HYDR1730730154.8571467.png</t>
+          <t>./test_images/HYDR1731620311.2808855.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>./test_images/HYDR1730730156.756312.png</t>
+          <t>./test_images/HYDR1731620313.514709.png</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3310,6 +3526,9 @@
       </c>
       <c r="K61" t="n">
         <v>0.002000000000000002</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="62">
@@ -3323,22 +3542,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1730730169.917497</t>
+          <t>1731620328.7719846</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1730730179.720643</t>
+          <t>1731620340.1342688</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>./test_images/HYDR1730730169.917497.png</t>
+          <t>./test_images/HYDR1731620328.7719846.png</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>./test_images/HYDR1730730179.720643.png</t>
+          <t>./test_images/HYDR1731620340.1342688.png</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3359,6 +3578,9 @@
       </c>
       <c r="K62" t="n">
         <v>-0.003099999999999992</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="63">
@@ -3372,13 +3594,13 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1730730179.7375705</t>
+          <t>1731620340.1522207</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>./test_images/HYDR1730730179.7375705.png</t>
+          <t>./test_images/HYDR1731620340.1522207.png</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -3395,8 +3617,15 @@
       <c r="I63" t="n">
         <v>0.6017</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0.6017</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3409,22 +3638,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1730730180.6468592</t>
+          <t>1731620341.2134452</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1730730180.7851872</t>
+          <t>1731620341.3482985</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730730180.6468592.png</t>
+          <t>./test_images/MXI1731620341.2134452.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730730180.7851872.png</t>
+          <t>./test_images/MXI1731620341.3482985.png</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3445,6 +3674,9 @@
       </c>
       <c r="K64" t="n">
         <v>7</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="65">
@@ -3458,22 +3690,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1730730181.5631378</t>
+          <t>1731620342.22066</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1730730182.6552448</t>
+          <t>1731620343.5168386</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730730181.5631378.png</t>
+          <t>./test_images/MXI1731620342.22066.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730730182.6552448.png</t>
+          <t>./test_images/MXI1731620343.5168386.png</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3494,6 +3726,9 @@
       </c>
       <c r="K65" t="n">
         <v>0.2999999999997272</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="66">
@@ -3507,22 +3742,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1730730182.6721628</t>
+          <t>1731620343.5337918</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1730730183.050255</t>
+          <t>1731620344.032025</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730730182.6721628.png</t>
+          <t>./test_images/MXI1731620343.5337918.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730730183.050255.png</t>
+          <t>./test_images/MXI1731620344.032025.png</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3543,6 +3778,9 @@
       </c>
       <c r="K66" t="n">
         <v>9.549999999999727</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="67">
@@ -3556,22 +3794,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1730730183.4441984</t>
+          <t>1731620344.4765558</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1730730186.3135538</t>
+          <t>1731620347.8041523</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730730183.4441984.png</t>
+          <t>./test_images/MXI1731620344.4765558.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730730186.3135538.png</t>
+          <t>./test_images/MXI1731620347.8041523.png</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3592,6 +3830,9 @@
       </c>
       <c r="K67" t="n">
         <v>9.050000000000182</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="68">
@@ -3605,22 +3846,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1730730189.9752824</t>
+          <t>1731620352.220737</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1730730190.809273</t>
+          <t>1731620353.1987004</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730730189.9752824.png</t>
+          <t>./test_images/MXI1731620352.220737.png</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730730190.809273.png</t>
+          <t>./test_images/MXI1731620353.1987004.png</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3641,6 +3882,9 @@
       </c>
       <c r="K68" t="n">
         <v>5.150000000000091</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="69">
@@ -3654,22 +3898,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1730730191.2762687</t>
+          <t>1731620353.8432312</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1730730192.1071773</t>
+          <t>1731620354.8324962</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730730191.2762687.png</t>
+          <t>./test_images/MXI1731620353.8432312.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730730192.1071773.png</t>
+          <t>./test_images/MXI1731620354.8324962.png</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3690,6 +3934,9 @@
       </c>
       <c r="K69" t="n">
         <v>7</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="70">
@@ -3703,22 +3950,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1730730194.0771592</t>
+          <t>1731620357.1021976</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1730730195.9751236</t>
+          <t>1731620359.3697374</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730730194.0771592.png</t>
+          <t>./test_images/MXI1731620357.1021976.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730730195.9751236.png</t>
+          <t>./test_images/MXI1731620359.3697374.png</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3739,6 +3986,9 @@
       </c>
       <c r="K70" t="n">
         <v>7.400000000000091</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="71">
@@ -3752,22 +4002,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1730730196.575065</t>
+          <t>1731620360.0591004</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1730730197.475906</t>
+          <t>1731620361.1111507</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730730196.575065.png</t>
+          <t>./test_images/MXI1731620360.0591004.png</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730730197.475906.png</t>
+          <t>./test_images/MXI1731620361.1111507.png</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3788,6 +4038,9 @@
       </c>
       <c r="K71" t="n">
         <v>1.049999999999727</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="72">
@@ -3801,22 +4054,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1730730197.5032601</t>
+          <t>1731620361.1291351</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1730730199.1593</t>
+          <t>1731620363.271231</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730730197.5032601.png</t>
+          <t>./test_images/MXI1731620361.1291351.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730730199.1593.png</t>
+          <t>./test_images/MXI1731620363.271231.png</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3837,6 +4090,9 @@
       </c>
       <c r="K72" t="n">
         <v>14.09999999999991</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="73">
@@ -3850,22 +4106,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1730730210.7732549</t>
+          <t>1731620377.3503547</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1730730214.4775462</t>
+          <t>1731620381.6839354</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730730210.7732549.png</t>
+          <t>./test_images/RUAL1731620377.3503547.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730730214.4775462.png</t>
+          <t>./test_images/RUAL1731620381.6839354.png</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3886,6 +4142,9 @@
       </c>
       <c r="K73" t="n">
         <v>-0.09500000000000597</v>
+      </c>
+      <c r="L73" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="74">
@@ -3899,22 +4158,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1730730214.4963236</t>
+          <t>1731620381.7018912</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1730730218.3723886</t>
+          <t>1731620385.8877509</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730730214.4963236.png</t>
+          <t>./test_images/RUAL1731620381.7018912.png</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730730218.3723886.png</t>
+          <t>./test_images/RUAL1731620385.8877509.png</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3935,6 +4194,9 @@
       </c>
       <c r="K74" t="n">
         <v>-0.07500000000000284</v>
+      </c>
+      <c r="L74" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="75">
@@ -3948,22 +4210,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1730730218.3906689</t>
+          <t>1731620385.9056761</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1730730223.8902035</t>
+          <t>1731620392.0885131</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730730218.3906689.png</t>
+          <t>./test_images/RUAL1731620385.9056761.png</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730730223.8902035.png</t>
+          <t>./test_images/RUAL1731620392.0885131.png</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3984,6 +4246,9 @@
       </c>
       <c r="K75" t="n">
         <v>-0.00999999999999801</v>
+      </c>
+      <c r="L75" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="76">
@@ -3997,22 +4262,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1730730223.9161344</t>
+          <t>1731620392.1054533</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1730730224.9693437</t>
+          <t>1731620393.2854888</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730730223.9161344.png</t>
+          <t>./test_images/RUAL1731620392.1054533.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730730224.9693437.png</t>
+          <t>./test_images/RUAL1731620393.2854888.png</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4033,6 +4298,9 @@
       </c>
       <c r="K76" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="77">
@@ -4046,22 +4314,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1730730228.1215994</t>
+          <t>1731620396.9647596</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1730730232.815752</t>
+          <t>1731620402.424764</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730730228.1215994.png</t>
+          <t>./test_images/RUAL1731620396.9647596.png</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730730232.815752.png</t>
+          <t>./test_images/RUAL1731620402.424764.png</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4082,6 +4350,9 @@
       </c>
       <c r="K77" t="n">
         <v>0.5250000000000057</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -4095,7 +4366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4119,6 +4390,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4132,6 +4418,15 @@
       <c r="C2" t="n">
         <v>9</v>
       </c>
+      <c r="D2" t="n">
+        <v>6.733333333333273</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4143,60 +4438,105 @@
         <v>-1.600000000000364</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.2666666666667273</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6100000000000421</v>
+        <v>21.59999999999991</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.599999999999985</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1999999999999957</v>
+        <v>0.4849999999999994</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.09699999999999989</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.59999999999991</v>
+        <v>0.6100000000000421</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.1220000000000084</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4849999999999994</v>
+        <v>0.1999999999999957</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.03999999999999915</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4208,7 +4548,16 @@
         <v>0.1200000000000045</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.02400000000000091</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.06999999999999984</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="9">
@@ -4221,33 +4570,60 @@
         <v>3.069999999999993</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7674999999999983</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.199999999999932</v>
+        <v>0.4499999999999886</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1124999999999972</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.000000000001062e-05</v>
+        <v>0.3000000000000682</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.07500000000001705</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.05999999999999997</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="12">
@@ -4262,83 +4638,146 @@
       <c r="C12" t="n">
         <v>3</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.1000000000000227</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.04999999999999998</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4499999999999886</v>
+        <v>8.000000000001062e-05</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
+      <c r="D13" t="n">
+        <v>2.666666666667021e-05</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.09000000000000008</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>HYDR</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4600000000000009</v>
+        <v>-0.00109999999999999</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.0003666666666666633</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3000000000000682</v>
+        <v>1.199999999999932</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.3999999999999773</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>HYDR</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.00109999999999999</v>
+        <v>0.4600000000000009</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1533333333333336</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.060000000000002</v>
+        <v>-0.4909999999999997</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.2454999999999998</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-1.15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.4909999999999997</v>
+        <v>-0.4799999999999898</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.2399999999999949</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="19">
@@ -4353,31 +4792,58 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.4799999999999898</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1.060000000000002</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.060000000000002</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row r="22">
@@ -4392,6 +4858,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/ST1/ST1_01.08.24_output.xlsx
+++ b/docs/ST1/ST1_01.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731619778.161965</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731619781.1624646</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731619778.161965.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731619781.1624646.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>289.74</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>289.89</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.1499999999999773</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731619781.178421</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731619785.679498</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731619781.178421.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731619785.679498.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>289.89</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>289.56</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.3299999999999841</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731619790.976935</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731619794.8764946</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731619790.976935.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731619794.8764946.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>289.82</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>289.1</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.7199999999999704</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731619809.2437863</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731619815.550319</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619809.2437863.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619815.550319.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>133.49</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>133.46</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731619815.5672734</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731619817.25606</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619815.5672734.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619817.25606.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>133.46</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>133</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.460000000000008</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731619821.8603718</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731619825.949498</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619821.8603718.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619825.949498.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>133.4</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>133.25</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.1500000000000057</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731619825.965454</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731619831.5582387</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619825.965454.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619831.5582387.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>133.25</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>132.77</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.4799999999999898</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731619831.5751936</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731619833.1745157</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619831.5751936.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619833.1745157.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>132.77</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>132.26</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.5100000000000193</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731619854.5976403</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731619861.8077726</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731619854.5976403.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731619861.8077726.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6726</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6705.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>20.5</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731619873.1430666</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731619873.5553052</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619873.1430666.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619873.5553052.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>513.8</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>516.65</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>2.850000000000023</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731619875.7058332</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731619890.6757002</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619875.7058332.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619890.6757002.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>515.75</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>512.7</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-3.049999999999955</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.59</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731619890.6916935</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731619892.8716667</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619890.6916935.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619892.8716667.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>512.7</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>512.2</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.5</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1163,95 +1251,107 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731619892.8876429</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731619892.8876429.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731619892.8876429.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>512.2</v>
       </c>
-      <c r="J15" t="n">
-        <v>512.2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>506.8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-5.400000000000034</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-1.05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731619906.9675295</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731619909.783804</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731619906.9675295.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731619909.783804.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>233.13</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>232.72</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.4099999999999966</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731619909.799734</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731619925.4956605</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731619909.799734.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731619925.4956605.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>232.72</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>233.44</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.7199999999999989</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731619930.2859602</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731619934.6700692</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731619930.2859602.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731619934.6700692.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>231.48</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>229.54</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>1.939999999999998</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.84</v>
       </c>
     </row>
@@ -1363,95 +1475,107 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731619937.6959903</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731619937.6959903.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731619937.6959903.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>229.95</v>
       </c>
-      <c r="J19" t="n">
-        <v>229.95</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>229.85</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731619938.282637</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731619938.6154737</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619938.282637.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619938.6154737.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1041.4</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>1049</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>7.599999999999909</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -1459,51 +1583,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731619941.0698204</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731619945.8015616</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619941.0698204.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619945.8015616.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1047.4</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>1047.2</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.2000000000000455</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1511,51 +1641,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731619945.818543</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731619948.6547422</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619945.818543.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619948.6547422.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1047.2</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1043</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>4.200000000000045</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -1563,51 +1699,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731619954.596722</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731619958.9155395</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619954.596722.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619958.9155395.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1039.2</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1034.6</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>4.600000000000136</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -1615,51 +1757,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731619960.7682385</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731619964.6383116</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619960.7682385.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619964.6383116.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1036.8</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1031.4</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>5.399999999999864</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -1667,43 +1815,49 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731619970.9575381</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731619970.9575381.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731619970.9575381.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1030.6</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1030.6</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1711,95 +1865,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731619971.491875</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731619971.491875.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731619971.491875.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>11.869</v>
       </c>
-      <c r="J26" t="n">
-        <v>11.869</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>11.864</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.004999999999999005</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731619973.4607131</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731619979.6609933</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731619973.4607131.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731619979.6609933.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>130.16</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>129.68</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.4799999999999898</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -1807,95 +1973,107 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731619990.6177087</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731619990.6177087.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731619990.6177087.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>129.66</v>
       </c>
-      <c r="J28" t="n">
-        <v>129.66</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>128.64</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-1.02000000000001</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731620005.2349756</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731620005.4527023</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731620005.2349756.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731620005.4527023.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>165.66</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>166.4</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.7400000000000091</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -1903,51 +2081,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731620007.7643461</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731620013.516007</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731620007.7643461.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731620013.516007.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>165.88</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>166.8</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.9200000000000159</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -1955,51 +2139,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731620016.4767761</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731620023.8318648</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731620016.4767761.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731620023.8318648.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>166.52</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>166.54</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.01999999999998181</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2007,51 +2197,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731620025.5703313</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731620036.4699242</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731620025.5703313.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731620036.4699242.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>166.3</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>164.74</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-1.560000000000002</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.9400000000000001</v>
       </c>
     </row>
@@ -2059,95 +2255,107 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731620036.4858837</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731620036.4858837.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731620036.4858837.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>164.74</v>
       </c>
-      <c r="J33" t="n">
-        <v>164.74</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>164.66</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.08000000000001251</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731620040.952395</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731620044.77679</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731620040.952395.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731620044.77679.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>50.84</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>50.915</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.07499999999999574</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2155,51 +2363,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731620048.9575603</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731620056.8406103</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731620048.9575603.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731620056.8406103.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>50.905</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>50.92</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.01500000000000057</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2207,51 +2421,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731620056.857565</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731620059.8683348</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731620056.857565.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731620059.8683348.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>50.92</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>50.9</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.02000000000000313</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2259,51 +2479,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731620059.885262</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731620063.7366774</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731620059.885262.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731620063.7366774.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>50.9</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>50.845</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.05499999999999972</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -2311,51 +2537,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731620063.7536373</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731620068.1728206</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731620063.7536373.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731620068.1728206.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>50.845</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>50.7</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.144999999999996</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2363,51 +2595,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731620071.9646358</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731620075.660049</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731620071.9646358.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731620075.660049.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1412.4</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1416.8</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>4.399999999999864</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -2415,51 +2653,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731620075.6770113</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731620084.2103639</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731620075.6770113.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731620084.2103639.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1416.8</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1418.2</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-1.400000000000091</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -2467,51 +2711,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731620084.2272904</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731620087.3745942</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731620084.2272904.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731620087.3745942.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1418.2</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1419</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2519,51 +2769,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731620087.3915489</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731620090.9390194</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731620087.3915489.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731620090.9390194.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1419</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1418.2</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2571,51 +2827,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731620090.9559479</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731620102.680594</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731620090.9559479.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731620102.680594.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1418.2</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1412</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-6.200000000000045</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.44</v>
       </c>
     </row>
@@ -2623,95 +2885,107 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731620102.6975465</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731620102.6975465.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731620102.6975465.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1412</v>
       </c>
-      <c r="J44" t="n">
-        <v>1412</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1412.6</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.5999999999999091</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731620106.1251347</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731620106.2251673</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731620106.1251347.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731620106.2251673.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>60.95</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>61.1</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.1499999999999986</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2719,51 +2993,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731620118.2979095</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731620121.2762704</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731620118.2979095.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731620121.2762704.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>61.2</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>61.34</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -2771,51 +3051,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731620121.2932248</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731620126.8643978</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731620121.2932248.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731620126.8643978.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>61.34</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>61.17</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.1700000000000017</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -2823,51 +3109,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731620142.40664</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731620149.2427666</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/SELG1731620142.40664.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/SELG1731620149.2427666.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>58.81</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>58.69</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.1200000000000045</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -2875,51 +3167,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731620149.2587233</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731620151.1915946</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/SELG1731620149.2587233.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/SELG1731620151.1915946.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>58.69</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>58.31</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -2927,51 +3225,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731620155.1097095</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731620160.7578878</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/SELG1731620155.1097095.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/SELG1731620160.7578878.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>58.3</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>58.11</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -2979,95 +3283,107 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731620171.684898</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731620171.684898.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731620171.684898.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>57.18</v>
       </c>
-      <c r="J51" t="n">
-        <v>57.18</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>57.2</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.02000000000000313</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731620176.3715062</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731620183.100369</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731620176.3715062.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731620183.100369.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>144.7</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>145.76</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>1.060000000000002</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -3075,51 +3391,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731620210.1297977</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731620238.5512795</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731620210.1297977.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731620238.5512795.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>21.339</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>20.848</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.4909999999999997</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>-2.3</v>
       </c>
     </row>
@@ -3127,95 +3449,107 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731620238.5682342</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731620238.5682342.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731620238.5682342.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>20.848</v>
       </c>
-      <c r="J54" t="n">
-        <v>20.848</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>20.831</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.01699999999999946</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731620249.8527565</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731620256.3800008</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731620249.8527565.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731620256.3800008.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>683.4</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>682</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-1.399999999999977</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -3223,51 +3557,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731620256.3979523</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731620259.8499439</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731620256.3979523.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731620259.8499439.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>682</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>681.05</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.9500000000000455</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -3275,51 +3615,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731620267.3220463</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731620269.8306775</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731620267.3220463.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731620269.8306775.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>678.6</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>677.85</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.75</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -3327,51 +3673,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731620283.1114783</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731620286.038318</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/FEES1731620283.1114783.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/FEES1731620286.038318.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>0.10008</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>0.10038</v>
       </c>
-      <c r="K58" t="n">
-        <v>0.0003000000000000086</v>
-      </c>
-      <c r="L58" t="n">
+      <c r="M58" t="n">
+        <v>0.0002999999999999947</v>
+      </c>
+      <c r="N58" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3379,51 +3731,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731620294.4061742</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731620302.9434075</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/FEES1731620294.4061742.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/FEES1731620302.9434075.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>0.10072</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>0.09988000000000001</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.0008399999999999935</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.83</v>
       </c>
     </row>
@@ -3431,51 +3789,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731620302.961352</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731620304.5395799</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/FEES1731620302.961352.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/FEES1731620304.5395799.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>0.09988000000000001</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>0.09926000000000001</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.0006199999999999956</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -3483,51 +3847,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731620311.2808855</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731620313.514709</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731620311.2808855.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731620313.514709.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>0.6055</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>0.6035</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.002000000000000002</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -3535,51 +3905,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731620328.7719846</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731620340.1342688</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731620328.7719846.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731620340.1342688.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>0.6048</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>0.6017</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.003099999999999992</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.51</v>
       </c>
     </row>
@@ -3587,95 +3963,107 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731620340.1522207</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1731620340.1522207.png</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1731620340.1522207.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>0.6017</v>
       </c>
-      <c r="J63" t="n">
-        <v>0.6017</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>0.6012999999999999</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.000400000000000067</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731620341.2134452</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731620341.3482985</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MXI1731620341.2134452.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MXI1731620341.3482985.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>3027.05</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>3034.05</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>7</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -3683,51 +4071,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731620342.22066</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731620343.5168386</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MXI1731620342.22066.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MXI1731620343.5168386.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>3038.15</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>3038.45</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.2999999999997272</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -3735,51 +4129,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731620343.5337918</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731620344.032025</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MXI1731620343.5337918.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MXI1731620344.032025.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>3038.45</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>3028.9</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>9.549999999999727</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -3787,51 +4187,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731620344.4765558</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731620347.8041523</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MXI1731620344.4765558.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MXI1731620347.8041523.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>3034.4</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>3025.35</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>9.050000000000182</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3839,51 +4245,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731620352.220737</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731620353.1987004</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MXI1731620352.220737.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MXI1731620353.1987004.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>3026.9</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>3021.75</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>5.150000000000091</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -3891,51 +4303,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731620353.8432312</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731620354.8324962</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MXI1731620353.8432312.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MXI1731620354.8324962.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>3022.2</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>3015.2</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>7</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -3943,51 +4361,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731620357.1021976</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731620359.3697374</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731620357.1021976.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MXI1731620359.3697374.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>3020.35</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>3027.75</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>7.400000000000091</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -3995,51 +4419,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731620360.0591004</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731620361.1111507</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731620360.0591004.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MXI1731620361.1111507.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>3025.4</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>3026.45</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>1.049999999999727</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -4047,51 +4477,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731620361.1291351</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731620363.271231</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MXI1731620361.1291351.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MXI1731620363.271231.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>3026.45</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>3012.35</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>14.09999999999991</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -4099,51 +4535,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731620377.3503547</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731620381.6839354</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731620377.3503547.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731620381.6839354.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>34.88</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>34.785</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.09500000000000597</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -4151,51 +4593,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731620381.7018912</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731620385.8877509</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731620381.7018912.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731620385.8877509.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>34.785</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>34.86</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.07500000000000284</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -4203,51 +4651,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731620385.9056761</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731620392.0885131</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731620385.9056761.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731620392.0885131.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>34.86</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>34.85</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.00999999999999801</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -4255,51 +4709,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731620392.1054533</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731620393.2854888</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731620392.1054533.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731620393.2854888.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>34.85</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>34.71</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -4307,51 +4767,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731620396.9647596</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731620402.424764</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731620396.9647596.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731620402.424764.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>34.935</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>34.41</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.5250000000000057</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -4435,16 +4901,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.600000000000364</v>
+        <v>-2.200000000000273</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2666666666667273</v>
+        <v>-0.3666666666667122</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.11</v>
+        <v>-0.15</v>
       </c>
       <c r="F3" t="n">
         <v>-0.02</v>
@@ -4545,19 +5011,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1200000000000045</v>
+        <v>0.2000000000000171</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02400000000000091</v>
+        <v>0.04000000000000341</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06999999999999984</v>
+        <v>0.1199999999999998</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
@@ -4567,19 +5033,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.069999999999993</v>
+        <v>3.169999999999987</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7674999999999983</v>
+        <v>0.7924999999999969</v>
       </c>
       <c r="E9" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="F9" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="10">
@@ -4589,19 +5055,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4499999999999886</v>
+        <v>0.4299999999999855</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1124999999999972</v>
+        <v>0.1074999999999964</v>
       </c>
       <c r="E10" t="n">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="11">
@@ -4611,19 +5077,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3000000000000682</v>
+        <v>-5.099999999999966</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07500000000001705</v>
+        <v>-1.274999999999991</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05999999999999997</v>
+        <v>-0.9900000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="12">
@@ -4655,13 +5121,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.000000000001062e-05</v>
+        <v>7.999999999999674e-05</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>2.666666666667021e-05</v>
+        <v>2.666666666666558e-05</v>
       </c>
       <c r="E13" t="n">
         <v>0.09000000000000008</v>
@@ -4677,19 +5143,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.00109999999999999</v>
+        <v>-0.0006999999999999229</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0003666666666666633</v>
+        <v>-0.0002333333333333076</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.18</v>
+        <v>-0.11</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.06</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="15">
@@ -4743,19 +5209,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.4909999999999997</v>
+        <v>-0.4740000000000002</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2454999999999998</v>
+        <v>-0.2370000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.3</v>
+        <v>-2.22</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.15</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="18">
@@ -4765,19 +5231,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.4799999999999898</v>
+        <v>-1.5</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2399999999999949</v>
+        <v>-0.75</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.37</v>
+        <v>-1.16</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.18</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="19">
@@ -4809,19 +5275,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-0.004999999999999005</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-0.004999999999999005</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="21">
